--- a/Section 10/aula-grafico-dinamico3.xlsx
+++ b/Section 10/aula-grafico-dinamico3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\10 Tabelas e Gráficos Dinâmicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58025CC-D487-4BDC-B776-FFEE94D65B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Painel" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -112,11 +113,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,12 +168,12 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,29 +185,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -225,7 +225,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -262,7 +262,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -280,10 +280,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -314,9 +314,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -357,7 +357,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -383,7 +382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -691,6 +690,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
@@ -706,6 +746,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -721,6 +802,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
@@ -736,10 +858,54 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -755,6 +921,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -932,6 +1101,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DBF-4C3E-96AB-326155C74B21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1056,6 +1230,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DBF-4C3E-96AB-326155C74B21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1180,6 +1359,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1DBF-4C3E-96AB-326155C74B21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1304,6 +1488,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1DBF-4C3E-96AB-326155C74B21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1358,7 +1547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516305328"/>
@@ -1417,7 +1606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516310032"/>
@@ -1453,7 +1642,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1474,9 +1663,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1517,7 +1706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1543,7 +1731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1757,7 +1945,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1784,7 +1971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1795,9 +1982,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1817,7 +2002,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1844,7 +2028,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1855,9 +2039,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1877,7 +2059,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1904,7 +2085,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1915,9 +2096,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1937,7 +2116,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1964,7 +2142,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1975,9 +2153,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1997,7 +2173,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2024,7 +2199,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -2035,9 +2210,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2174,7 +2347,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2187,7 +2360,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2229,6 +2401,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F59-4B96-8432-03F6331C391C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2281,7 +2458,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2294,7 +2471,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2336,6 +2512,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F59-4B96-8432-03F6331C391C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2388,7 +2569,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2401,7 +2582,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2443,6 +2623,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F59-4B96-8432-03F6331C391C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2495,7 +2680,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2508,7 +2693,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2550,6 +2734,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F59-4B96-8432-03F6331C391C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -2605,7 +2794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511567656"/>
@@ -2650,7 +2839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="511568440"/>
@@ -2667,7 +2856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2693,7 +2881,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2718,7 +2906,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2740,9 +2928,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2783,7 +2971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2809,7 +2996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3069,6 +3256,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
@@ -3084,6 +3312,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
@@ -3099,6 +3368,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
@@ -3114,6 +3424,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
@@ -3229,6 +3580,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-268B-4DF8-9246-C56A9F3B34E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3277,6 +3633,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-268B-4DF8-9246-C56A9F3B34E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3325,6 +3686,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-268B-4DF8-9246-C56A9F3B34E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3373,6 +3739,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-268B-4DF8-9246-C56A9F3B34E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3428,7 +3799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="513516648"/>
@@ -3487,7 +3858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="544116336"/>
@@ -3523,7 +3894,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5204,7 +5575,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5238,7 +5615,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Ano"/>
+            <xdr:cNvPr id="3" name="Ano">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -5310,7 +5693,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Vendedor"/>
+            <xdr:cNvPr id="4" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -5380,7 +5769,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5412,7 +5807,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5444,7 +5845,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo de cantos arredondados 6"/>
+        <xdr:cNvPr id="7" name="Retângulo de cantos arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5506,7 +5913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Retângulo de cantos arredondados 8"/>
+        <xdr:cNvPr id="9" name="Retângulo de cantos arredondados 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5568,13 +5981,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Retângulo de cantos arredondados 9"/>
+        <xdr:cNvPr id="10" name="Retângulo de cantos arredondados 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343525" y="2124075"/>
-          <a:ext cx="6953250" cy="1924050"/>
+          <a:off x="5347335" y="2061210"/>
+          <a:ext cx="6953250" cy="1847850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5619,7 +6038,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Nelio" refreshedDate="43606.749321180556" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="272">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nelio" refreshedDate="43606.749321180556" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="272" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="TBVendas"/>
   </cacheSource>
@@ -5659,17 +6078,17 @@
         <s v="Padmé Amidala"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Clientes visitados" numFmtId="165">
+    <cacheField name="Clientes visitados" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="195"/>
     </cacheField>
-    <cacheField name="Negócios Fechados" numFmtId="165">
+    <cacheField name="Negócios Fechados" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100"/>
     </cacheField>
-    <cacheField name="Valor Vendido" numFmtId="164">
+    <cacheField name="Valor Vendido" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3056" maxValue="22465"/>
     </cacheField>
-    <cacheField name="Vendas Perdidas" numFmtId="0" formula="'Clientes visitados' -'Negócios Fechados'" databaseField="0"/>
-    <cacheField name="Valor médio de venda" numFmtId="0" formula="'Valor Vendido' /'Negócios Fechados'" databaseField="0"/>
+    <cacheField name="Vendas Perdidas" numFmtId="0" formula="'Clientes visitados'-'Negócios Fechados'" databaseField="0"/>
+    <cacheField name="Valor médio de venda" numFmtId="0" formula="'Valor Vendido'/'Negócios Fechados'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -7861,7 +8280,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDVendas" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="TDVendas" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -7902,9 +8321,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -8274,12 +8693,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDVendasPerdidas" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="TDVendasPerdidas" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8304,9 +8726,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -8342,7 +8764,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Vendas Perdidas" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Soma de Vendas Perdidas" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="8">
     <chartFormat chart="2" format="16" series="1">
@@ -8447,12 +8869,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDValorMedio" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="TDValorMedio" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8477,9 +8902,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -8620,12 +9045,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano" sourceName="Ano">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Ano" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Ano">
   <pivotTables>
     <pivotTable tabId="3" name="TDVendas"/>
     <pivotTable tabId="5" name="TDVendasPerdidas"/>
@@ -8644,7 +9072,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Vendedor" sourceName="Vendedor">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Vendedor">
   <pivotTables>
     <pivotTable tabId="3" name="TDVendas"/>
     <pivotTable tabId="5" name="TDVendasPerdidas"/>
@@ -8668,22 +9096,22 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Ano" cache="SegmentaçãodeDados_Ano" caption="Ano" columnCount="3" style="SlicerStyleLight6" rowHeight="241300"/>
-  <slicer name="Vendedor" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" style="SlicerStyleLight6" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Ano" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="SegmentaçãodeDados_Ano" caption="Ano" columnCount="3" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="Vendedor" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TBVendas" displayName="TBVendas" ref="A1:F273" headerRowDxfId="9">
-  <autoFilter ref="A1:F273"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBVendas" displayName="TBVendas" ref="A1:F273" headerRowDxfId="9">
+  <autoFilter ref="A1:F273" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Ano" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Vendedor"/>
-    <tableColumn id="7" name="Clientes visitados" dataDxfId="4" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" name="Negócios Fechados" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mês" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ano" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vendedor"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Clientes visitados" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Negócios Fechados" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8985,61 +9413,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H8" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9055,24 +9485,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9092,7 +9522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9112,7 +9542,7 @@
         <v>7625</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -9132,7 +9562,7 @@
         <v>16020</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -9152,7 +9582,7 @@
         <v>9859</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -9172,7 +9602,7 @@
         <v>10155</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -9192,7 +9622,7 @@
         <v>21591</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -9212,7 +9642,7 @@
         <v>11574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -9232,7 +9662,7 @@
         <v>11242</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -9252,7 +9682,7 @@
         <v>12943</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -9272,7 +9702,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -9292,7 +9722,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -9312,7 +9742,7 @@
         <v>22011</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -9332,7 +9762,7 @@
         <v>12652</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -9352,7 +9782,7 @@
         <v>21216</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -9372,7 +9802,7 @@
         <v>11934</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -9392,7 +9822,7 @@
         <v>16645</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -9412,7 +9842,7 @@
         <v>15306</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -9432,7 +9862,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -9452,7 +9882,7 @@
         <v>15883</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -9472,7 +9902,7 @@
         <v>10246</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -9492,7 +9922,7 @@
         <v>21099</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -9512,7 +9942,7 @@
         <v>14038</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -9532,7 +9962,7 @@
         <v>12475</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -9552,7 +9982,7 @@
         <v>14057</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -9572,7 +10002,7 @@
         <v>17044</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -9592,7 +10022,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -9612,7 +10042,7 @@
         <v>6436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -9632,7 +10062,7 @@
         <v>8064</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -9652,7 +10082,7 @@
         <v>14398</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -9672,7 +10102,7 @@
         <v>10816</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -9692,7 +10122,7 @@
         <v>18868</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -9712,7 +10142,7 @@
         <v>14416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -9732,7 +10162,7 @@
         <v>12347</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -9752,7 +10182,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -9772,7 +10202,7 @@
         <v>21220</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -9792,7 +10222,7 @@
         <v>20414</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -9812,7 +10242,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -9832,7 +10262,7 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -9852,7 +10282,7 @@
         <v>22198</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -9872,7 +10302,7 @@
         <v>20710</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -9892,7 +10322,7 @@
         <v>7682</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -9912,7 +10342,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -9932,7 +10362,7 @@
         <v>21707</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -9952,7 +10382,7 @@
         <v>8922</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -9972,7 +10402,7 @@
         <v>13535</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -9992,7 +10422,7 @@
         <v>12927</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -10012,7 +10442,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -10032,7 +10462,7 @@
         <v>13361</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>6</v>
       </c>
@@ -10052,7 +10482,7 @@
         <v>16429</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -10072,7 +10502,7 @@
         <v>7996</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -10092,7 +10522,7 @@
         <v>9788</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -10112,7 +10542,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>7</v>
       </c>
@@ -10132,7 +10562,7 @@
         <v>17126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -10152,7 +10582,7 @@
         <v>15731</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>7</v>
       </c>
@@ -10172,7 +10602,7 @@
         <v>11359</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>7</v>
       </c>
@@ -10192,7 +10622,7 @@
         <v>6696</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>7</v>
       </c>
@@ -10212,7 +10642,7 @@
         <v>5218</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>8</v>
       </c>
@@ -10232,7 +10662,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>8</v>
       </c>
@@ -10252,7 +10682,7 @@
         <v>5681</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>8</v>
       </c>
@@ -10272,7 +10702,7 @@
         <v>18208</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>8</v>
       </c>
@@ -10292,7 +10722,7 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>8</v>
       </c>
@@ -10312,7 +10742,7 @@
         <v>21601</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>8</v>
       </c>
@@ -10332,7 +10762,7 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>8</v>
       </c>
@@ -10352,7 +10782,7 @@
         <v>18688</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>8</v>
       </c>
@@ -10372,7 +10802,7 @@
         <v>20899</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>9</v>
       </c>
@@ -10392,7 +10822,7 @@
         <v>5546</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>9</v>
       </c>
@@ -10412,7 +10842,7 @@
         <v>15541</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>9</v>
       </c>
@@ -10432,7 +10862,7 @@
         <v>13501</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>9</v>
       </c>
@@ -10452,7 +10882,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>9</v>
       </c>
@@ -10472,7 +10902,7 @@
         <v>19284</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>9</v>
       </c>
@@ -10492,7 +10922,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -10512,7 +10942,7 @@
         <v>11181</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>9</v>
       </c>
@@ -10532,7 +10962,7 @@
         <v>13333</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>10</v>
       </c>
@@ -10552,7 +10982,7 @@
         <v>9690</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>10</v>
       </c>
@@ -10572,7 +11002,7 @@
         <v>11731</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>10</v>
       </c>
@@ -10592,7 +11022,7 @@
         <v>13479</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>10</v>
       </c>
@@ -10612,7 +11042,7 @@
         <v>5329</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>10</v>
       </c>
@@ -10632,7 +11062,7 @@
         <v>11709</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>10</v>
       </c>
@@ -10652,7 +11082,7 @@
         <v>11224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>10</v>
       </c>
@@ -10672,7 +11102,7 @@
         <v>19279</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>10</v>
       </c>
@@ -10692,7 +11122,7 @@
         <v>12648</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>11</v>
       </c>
@@ -10712,7 +11142,7 @@
         <v>9928</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>11</v>
       </c>
@@ -10732,7 +11162,7 @@
         <v>19349</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>11</v>
       </c>
@@ -10752,7 +11182,7 @@
         <v>18923</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>11</v>
       </c>
@@ -10772,7 +11202,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>11</v>
       </c>
@@ -10792,7 +11222,7 @@
         <v>10557</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>11</v>
       </c>
@@ -10812,7 +11242,7 @@
         <v>14870</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>11</v>
       </c>
@@ -10832,7 +11262,7 @@
         <v>17427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>11</v>
       </c>
@@ -10852,7 +11282,7 @@
         <v>11507</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -10872,7 +11302,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>12</v>
       </c>
@@ -10892,7 +11322,7 @@
         <v>20795</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>12</v>
       </c>
@@ -10912,7 +11342,7 @@
         <v>12451</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>12</v>
       </c>
@@ -10932,7 +11362,7 @@
         <v>7217</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>12</v>
       </c>
@@ -10952,7 +11382,7 @@
         <v>12383</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>12</v>
       </c>
@@ -10972,7 +11402,7 @@
         <v>17560</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>12</v>
       </c>
@@ -10992,7 +11422,7 @@
         <v>14937</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>12</v>
       </c>
@@ -11012,7 +11442,7 @@
         <v>20988</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -11032,7 +11462,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -11052,7 +11482,7 @@
         <v>18787</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -11072,7 +11502,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>1</v>
       </c>
@@ -11092,7 +11522,7 @@
         <v>15608</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -11112,7 +11542,7 @@
         <v>16423</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -11132,7 +11562,7 @@
         <v>13084</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -11152,7 +11582,7 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>1</v>
       </c>
@@ -11172,7 +11602,7 @@
         <v>20751</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -11192,7 +11622,7 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -11212,7 +11642,7 @@
         <v>8269</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -11232,7 +11662,7 @@
         <v>11422</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -11252,7 +11682,7 @@
         <v>11150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>2</v>
       </c>
@@ -11272,7 +11702,7 @@
         <v>7287</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>2</v>
       </c>
@@ -11292,7 +11722,7 @@
         <v>16370</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -11312,7 +11742,7 @@
         <v>21831</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>2</v>
       </c>
@@ -11332,7 +11762,7 @@
         <v>8496</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -11352,7 +11782,7 @@
         <v>6537</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>3</v>
       </c>
@@ -11372,7 +11802,7 @@
         <v>10107</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -11392,7 +11822,7 @@
         <v>19932</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -11412,7 +11842,7 @@
         <v>10740</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -11432,7 +11862,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -11452,7 +11882,7 @@
         <v>9597</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -11472,7 +11902,7 @@
         <v>17349</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>3</v>
       </c>
@@ -11492,7 +11922,7 @@
         <v>11553</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -11512,7 +11942,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>4</v>
       </c>
@@ -11532,7 +11962,7 @@
         <v>8624</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -11552,7 +11982,7 @@
         <v>13490</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>4</v>
       </c>
@@ -11572,7 +12002,7 @@
         <v>8901</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -11592,7 +12022,7 @@
         <v>18942</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>4</v>
       </c>
@@ -11612,7 +12042,7 @@
         <v>6528</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -11632,7 +12062,7 @@
         <v>17364</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>4</v>
       </c>
@@ -11652,7 +12082,7 @@
         <v>21582</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -11672,7 +12102,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -11692,7 +12122,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -11712,7 +12142,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -11732,7 +12162,7 @@
         <v>13610</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>5</v>
       </c>
@@ -11752,7 +12182,7 @@
         <v>21628</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>5</v>
       </c>
@@ -11772,7 +12202,7 @@
         <v>17826</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>5</v>
       </c>
@@ -11792,7 +12222,7 @@
         <v>19424</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>5</v>
       </c>
@@ -11812,7 +12242,7 @@
         <v>16101</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -11832,7 +12262,7 @@
         <v>7705</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -11852,7 +12282,7 @@
         <v>17984</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -11872,7 +12302,7 @@
         <v>13295</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -11892,7 +12322,7 @@
         <v>20474</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -11912,7 +12342,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -11932,7 +12362,7 @@
         <v>20358</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -11952,7 +12382,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -11972,7 +12402,7 @@
         <v>11976</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>7</v>
       </c>
@@ -11992,7 +12422,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>7</v>
       </c>
@@ -12012,7 +12442,7 @@
         <v>22235</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>7</v>
       </c>
@@ -12032,7 +12462,7 @@
         <v>15149</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>7</v>
       </c>
@@ -12052,7 +12482,7 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -12072,7 +12502,7 @@
         <v>8860</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>7</v>
       </c>
@@ -12092,7 +12522,7 @@
         <v>13734</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>7</v>
       </c>
@@ -12112,7 +12542,7 @@
         <v>14394</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -12132,7 +12562,7 @@
         <v>14618</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>8</v>
       </c>
@@ -12152,7 +12582,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>8</v>
       </c>
@@ -12172,7 +12602,7 @@
         <v>22411</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>8</v>
       </c>
@@ -12192,7 +12622,7 @@
         <v>21611</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>8</v>
       </c>
@@ -12212,7 +12642,7 @@
         <v>14770</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>8</v>
       </c>
@@ -12232,7 +12662,7 @@
         <v>13335</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>8</v>
       </c>
@@ -12252,7 +12682,7 @@
         <v>18317</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>8</v>
       </c>
@@ -12272,7 +12702,7 @@
         <v>7634</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>8</v>
       </c>
@@ -12292,7 +12722,7 @@
         <v>12561</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>9</v>
       </c>
@@ -12312,7 +12742,7 @@
         <v>6926</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>9</v>
       </c>
@@ -12332,7 +12762,7 @@
         <v>15017</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>9</v>
       </c>
@@ -12352,7 +12782,7 @@
         <v>18170</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>9</v>
       </c>
@@ -12372,7 +12802,7 @@
         <v>17633</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>9</v>
       </c>
@@ -12392,7 +12822,7 @@
         <v>18747</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>9</v>
       </c>
@@ -12412,7 +12842,7 @@
         <v>16788</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>9</v>
       </c>
@@ -12432,7 +12862,7 @@
         <v>19057</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>9</v>
       </c>
@@ -12452,7 +12882,7 @@
         <v>14183</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>10</v>
       </c>
@@ -12472,7 +12902,7 @@
         <v>7951</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>10</v>
       </c>
@@ -12492,7 +12922,7 @@
         <v>13231</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>10</v>
       </c>
@@ -12512,7 +12942,7 @@
         <v>16437</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>10</v>
       </c>
@@ -12532,7 +12962,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>10</v>
       </c>
@@ -12552,7 +12982,7 @@
         <v>15927</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>10</v>
       </c>
@@ -12572,7 +13002,7 @@
         <v>12954</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>10</v>
       </c>
@@ -12592,7 +13022,7 @@
         <v>9682</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>10</v>
       </c>
@@ -12612,7 +13042,7 @@
         <v>8114</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>11</v>
       </c>
@@ -12632,7 +13062,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>11</v>
       </c>
@@ -12652,7 +13082,7 @@
         <v>15963</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>11</v>
       </c>
@@ -12672,7 +13102,7 @@
         <v>14626</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>11</v>
       </c>
@@ -12692,7 +13122,7 @@
         <v>14528</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>11</v>
       </c>
@@ -12712,7 +13142,7 @@
         <v>22086</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>11</v>
       </c>
@@ -12732,7 +13162,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>11</v>
       </c>
@@ -12752,7 +13182,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>11</v>
       </c>
@@ -12772,7 +13202,7 @@
         <v>9564</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>12</v>
       </c>
@@ -12792,7 +13222,7 @@
         <v>4938</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>12</v>
       </c>
@@ -12812,7 +13242,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -12832,7 +13262,7 @@
         <v>14684</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>12</v>
       </c>
@@ -12852,7 +13282,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>12</v>
       </c>
@@ -12872,7 +13302,7 @@
         <v>21753</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>12</v>
       </c>
@@ -12892,7 +13322,7 @@
         <v>19840</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>12</v>
       </c>
@@ -12912,7 +13342,7 @@
         <v>18180</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>12</v>
       </c>
@@ -12932,7 +13362,7 @@
         <v>18174</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -12952,7 +13382,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>1</v>
       </c>
@@ -12972,7 +13402,7 @@
         <v>18081</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -12992,7 +13422,7 @@
         <v>13175</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>1</v>
       </c>
@@ -13012,7 +13442,7 @@
         <v>19349</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -13032,7 +13462,7 @@
         <v>17241</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>1</v>
       </c>
@@ -13052,7 +13482,7 @@
         <v>12436</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -13072,7 +13502,7 @@
         <v>8244</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>1</v>
       </c>
@@ -13092,7 +13522,7 @@
         <v>13249</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>2</v>
       </c>
@@ -13112,7 +13542,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>2</v>
       </c>
@@ -13132,7 +13562,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>2</v>
       </c>
@@ -13152,7 +13582,7 @@
         <v>12578</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>2</v>
       </c>
@@ -13172,7 +13602,7 @@
         <v>16618</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>2</v>
       </c>
@@ -13192,7 +13622,7 @@
         <v>20903</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>2</v>
       </c>
@@ -13212,7 +13642,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -13232,7 +13662,7 @@
         <v>19738</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -13252,7 +13682,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>3</v>
       </c>
@@ -13272,7 +13702,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>3</v>
       </c>
@@ -13292,7 +13722,7 @@
         <v>8831</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>3</v>
       </c>
@@ -13312,7 +13742,7 @@
         <v>15633</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>3</v>
       </c>
@@ -13332,7 +13762,7 @@
         <v>7983</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>3</v>
       </c>
@@ -13352,7 +13782,7 @@
         <v>12595</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>3</v>
       </c>
@@ -13372,7 +13802,7 @@
         <v>13423</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>3</v>
       </c>
@@ -13392,7 +13822,7 @@
         <v>8993</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>3</v>
       </c>
@@ -13412,7 +13842,7 @@
         <v>14124</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>4</v>
       </c>
@@ -13432,7 +13862,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>4</v>
       </c>
@@ -13452,7 +13882,7 @@
         <v>5787</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>4</v>
       </c>
@@ -13472,7 +13902,7 @@
         <v>11999</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>4</v>
       </c>
@@ -13492,7 +13922,7 @@
         <v>8288</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>4</v>
       </c>
@@ -13512,7 +13942,7 @@
         <v>19476</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>4</v>
       </c>
@@ -13532,7 +13962,7 @@
         <v>6704</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>4</v>
       </c>
@@ -13552,7 +13982,7 @@
         <v>14045</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>4</v>
       </c>
@@ -13572,7 +14002,7 @@
         <v>22274</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -13592,7 +14022,7 @@
         <v>7957</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>5</v>
       </c>
@@ -13612,7 +14042,7 @@
         <v>9103</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -13632,7 +14062,7 @@
         <v>14429</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>5</v>
       </c>
@@ -13652,7 +14082,7 @@
         <v>17913</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -13672,7 +14102,7 @@
         <v>18196</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>5</v>
       </c>
@@ -13692,7 +14122,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -13712,7 +14142,7 @@
         <v>12763</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>5</v>
       </c>
@@ -13732,7 +14162,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>6</v>
       </c>
@@ -13752,7 +14182,7 @@
         <v>8193</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>6</v>
       </c>
@@ -13772,7 +14202,7 @@
         <v>21413</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>6</v>
       </c>
@@ -13792,7 +14222,7 @@
         <v>15912</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>6</v>
       </c>
@@ -13812,7 +14242,7 @@
         <v>17982</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>6</v>
       </c>
@@ -13832,7 +14262,7 @@
         <v>16415</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>6</v>
       </c>
@@ -13852,7 +14282,7 @@
         <v>19679</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>6</v>
       </c>
@@ -13872,7 +14302,7 @@
         <v>19236</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>6</v>
       </c>
@@ -13892,7 +14322,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>7</v>
       </c>
@@ -13912,7 +14342,7 @@
         <v>7318</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>7</v>
       </c>
@@ -13932,7 +14362,7 @@
         <v>10549</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>7</v>
       </c>
@@ -13952,7 +14382,7 @@
         <v>9208</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>7</v>
       </c>
@@ -13972,7 +14402,7 @@
         <v>10253</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>7</v>
       </c>
@@ -13992,7 +14422,7 @@
         <v>10748</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>7</v>
       </c>
@@ -14012,7 +14442,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>7</v>
       </c>
@@ -14032,7 +14462,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>7</v>
       </c>
@@ -14052,7 +14482,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>8</v>
       </c>
@@ -14072,7 +14502,7 @@
         <v>9751</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>8</v>
       </c>
@@ -14092,7 +14522,7 @@
         <v>12021</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>8</v>
       </c>
@@ -14112,7 +14542,7 @@
         <v>19380</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>8</v>
       </c>
@@ -14132,7 +14562,7 @@
         <v>11396</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>8</v>
       </c>
@@ -14152,7 +14582,7 @@
         <v>9034</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>8</v>
       </c>
@@ -14172,7 +14602,7 @@
         <v>20533</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -14192,7 +14622,7 @@
         <v>16885</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>8</v>
       </c>
@@ -14212,7 +14642,7 @@
         <v>20953</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>9</v>
       </c>
@@ -14232,7 +14662,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>9</v>
       </c>
@@ -14252,7 +14682,7 @@
         <v>17016</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>9</v>
       </c>
@@ -14272,7 +14702,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>9</v>
       </c>
@@ -14292,7 +14722,7 @@
         <v>19416</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>9</v>
       </c>
@@ -14312,7 +14742,7 @@
         <v>10959</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>9</v>
       </c>
@@ -14332,7 +14762,7 @@
         <v>17631</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>9</v>
       </c>
@@ -14352,7 +14782,7 @@
         <v>12213</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>9</v>
       </c>
@@ -14372,7 +14802,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>10</v>
       </c>
@@ -14392,7 +14822,7 @@
         <v>6871</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>10</v>
       </c>
@@ -14412,7 +14842,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>10</v>
       </c>
@@ -14432,7 +14862,7 @@
         <v>18385</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>10</v>
       </c>
@@ -14452,7 +14882,7 @@
         <v>19890</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>10</v>
       </c>
@@ -14472,7 +14902,7 @@
         <v>6990</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>10</v>
       </c>
@@ -14492,7 +14922,7 @@
         <v>15367</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>10</v>
       </c>
@@ -14512,7 +14942,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>10</v>
       </c>
@@ -14541,28 +14971,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -14570,7 +15000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -14590,283 +15020,283 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2016</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>176775</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>179155</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5">
         <v>147886</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5">
         <v>73477</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5">
         <v>577293</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>16020</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>21591</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6">
         <v>10155</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6">
         <v>7625</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6">
         <v>55391</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>12624</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>21216</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>12652</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7">
         <v>3056</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
         <v>49548</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>15883</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>14038</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8">
         <v>21099</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8">
         <v>5119</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <v>56139</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>6436</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>10816</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9">
         <v>14398</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9">
         <v>4008</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9">
         <v>35658</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>21220</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>7302</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>14484</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10">
         <v>4185</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10">
         <v>47191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>21707</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>12927</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11">
         <v>13535</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11">
         <v>4255</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11">
         <v>52424</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>9788</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>15731</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12">
         <v>17126</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12">
         <v>7996</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12">
         <v>50641</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>5681</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>21601</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13">
         <v>5062</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13">
         <v>3974</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13">
         <v>36318</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>15541</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>19284</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14">
         <v>20530</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14">
         <v>5546</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14">
         <v>60901</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>10</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>11731</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>11709</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15">
         <v>5329</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15">
         <v>9690</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15">
         <v>38459</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>11</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>19349</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>10557</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16">
         <v>6299</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16">
         <v>9928</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16">
         <v>46133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>12</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>20795</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>12383</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17">
         <v>7217</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17">
         <v>8095</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17">
         <v>48490</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>176775</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>179155</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18">
         <v>147886</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18">
         <v>73477</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18">
         <v>577293</v>
       </c>
     </row>
@@ -14876,36 +15306,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="13">
+        <v>288</v>
+      </c>
+      <c r="C5" s="13">
+        <v>558</v>
+      </c>
+      <c r="D5" s="13">
+        <v>411</v>
+      </c>
+      <c r="E5" s="13">
+        <v>132</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13">
+        <v>288</v>
+      </c>
+      <c r="C6" s="13">
+        <v>558</v>
+      </c>
+      <c r="D6" s="13">
+        <v>411</v>
+      </c>
+      <c r="E6" s="13">
+        <v>132</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="5" width="6.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -14925,137 +15449,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2016</v>
       </c>
       <c r="B5" s="14">
-        <v>288</v>
+        <v>291.22734761120262</v>
       </c>
       <c r="C5" s="14">
-        <v>558</v>
+        <v>209.53801169590642</v>
       </c>
       <c r="D5" s="14">
-        <v>411</v>
+        <v>221.71814092953522</v>
       </c>
       <c r="E5" s="14">
-        <v>132</v>
+        <v>208.74147727272728</v>
       </c>
       <c r="F5" s="14">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232.68561064087061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="14">
-        <v>288</v>
+        <v>291.22734761120262</v>
       </c>
       <c r="C6" s="14">
-        <v>558</v>
+        <v>209.53801169590642</v>
       </c>
       <c r="D6" s="14">
-        <v>411</v>
+        <v>221.71814092953522</v>
       </c>
       <c r="E6" s="14">
-        <v>132</v>
+        <v>208.74147727272728</v>
       </c>
       <c r="F6" s="14">
-        <v>1389</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="15">
-        <v>291.22734761120262</v>
-      </c>
-      <c r="C5" s="15">
-        <v>209.53801169590642</v>
-      </c>
-      <c r="D5" s="15">
-        <v>221.71814092953522</v>
-      </c>
-      <c r="E5" s="15">
-        <v>208.74147727272728</v>
-      </c>
-      <c r="F5" s="15">
-        <v>232.68561064087061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15">
-        <v>291.22734761120262</v>
-      </c>
-      <c r="C6" s="15">
-        <v>209.53801169590642</v>
-      </c>
-      <c r="D6" s="15">
-        <v>221.71814092953522</v>
-      </c>
-      <c r="E6" s="15">
-        <v>208.74147727272728</v>
-      </c>
-      <c r="F6" s="15">
         <v>232.68561064087061</v>
       </c>
     </row>
